--- a/Document Library/Bill Of Materials/3D Filament Guide  .xlsx
+++ b/Document Library/Bill Of Materials/3D Filament Guide  .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="15975" windowHeight="8130"/>
+    <workbookView xWindow="636" yWindow="552" windowWidth="15972" windowHeight="8136"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Material</t>
   </si>
@@ -724,26 +724,26 @@
   <dimension ref="A1:AD980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K6" sqref="K6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="11" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="15.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1">
       <c r="A2" s="24" t="s">
         <v>8</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:30" ht="17.25" thickBot="1">
+    <row r="3" spans="1:30" ht="15.6" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>25</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
     </row>
-    <row r="4" spans="1:30" ht="17.25" thickBot="1">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1">
       <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:30" thickBot="1">
+    <row r="5" spans="1:30" ht="15.6" thickBot="1">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
     </row>
-    <row r="6" spans="1:30" thickBot="1">
+    <row r="6" spans="1:30" ht="15.6" thickBot="1">
       <c r="A6" s="25" t="s">
         <v>48</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
     </row>
-    <row r="7" spans="1:30" ht="17.25" thickBot="1">
+    <row r="7" spans="1:30" ht="15.6" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="17.25" thickBot="1">
+    <row r="8" spans="1:30" ht="15.6" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
     </row>
-    <row r="10" spans="1:30" ht="17.25" thickBot="1">
+    <row r="10" spans="1:30" ht="15.6" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:30" ht="17.25" thickBot="1">
+    <row r="11" spans="1:30" ht="15.6" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
     </row>
-    <row r="12" spans="1:30" ht="17.25" thickBot="1">
+    <row r="12" spans="1:30" ht="15.6" thickBot="1">
       <c r="A12" s="15" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
     </row>
-    <row r="13" spans="1:30" ht="17.25" thickBot="1">
+    <row r="13" spans="1:30" ht="15.6" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
     </row>
-    <row r="14" spans="1:30" ht="17.25" thickBot="1">
+    <row r="14" spans="1:30" ht="15.6" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
     </row>
-    <row r="15" spans="1:30" ht="17.25" thickBot="1">
+    <row r="15" spans="1:30" ht="15.6" thickBot="1">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
     </row>
-    <row r="16" spans="1:30" thickBot="1">
+    <row r="16" spans="1:30" ht="15.6" thickBot="1">
       <c r="A16" s="25" t="s">
         <v>32</v>
       </c>
@@ -1472,7 +1472,9 @@
         <v>120</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="29"/>
       <c r="K16" s="4" t="s">
         <v>34</v>
@@ -1496,7 +1498,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
     </row>
-    <row r="17" spans="1:29" ht="17.25" thickBot="1">
+    <row r="17" spans="1:29" ht="15.6" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1545,7 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
     </row>
-    <row r="18" spans="1:29" ht="17.25" thickBot="1">
+    <row r="18" spans="1:29" ht="15.6" thickBot="1">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
@@ -1638,7 +1640,7 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="16.5">
+    <row r="20" spans="1:29" ht="15">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -1682,7 +1684,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="16.5">
+    <row r="21" spans="1:29" ht="15">
       <c r="A21" s="24" t="s">
         <v>15</v>
       </c>
